--- a/data/roster.xlsx
+++ b/data/roster.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Kaspar</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>Beyersmann</t>
+  </si>
+  <si>
+    <t>Steering</t>
   </si>
 </sst>
 </file>
@@ -490,7 +493,7 @@
   <dimension ref="A1:AA23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,6 +519,9 @@
       <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -530,6 +536,9 @@
       <c r="D2" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
@@ -546,6 +555,9 @@
       <c r="D3" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
@@ -562,6 +574,9 @@
       <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
@@ -578,6 +593,9 @@
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
@@ -594,6 +612,9 @@
       <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
@@ -610,6 +631,9 @@
       <c r="D7" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
@@ -625,6 +649,9 @@
       </c>
       <c r="D8" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
